--- a/biology/Zoologie/Crawl_(film,_2019)/Crawl_(film,_2019).xlsx
+++ b/biology/Zoologie/Crawl_(film,_2019)/Crawl_(film,_2019).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crawl ou Terreur dans la tempête au Québec est un film d'horreur américain réalisé par Alexandre Aja, sorti en 2019.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haley vit en Floride. Un violent ouragan s’abat sur sa ville natale. Ignorant l'ordre d’évacuer, elle part à la recherche de son père, porté disparu. Elle va finalement le retrouver, grièvement blessé dans le sous-sol de leur ancienne maison familiale. Haley et son père vont vite se rendre compte qu'une inondation progressant très rapidement les menace. Ils vont par ailleurs comprendre que celle-ci est loin d’être la menace la plus terrifiante. Car la ville inondée sera envahie par des alligators.
 </t>
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Crawl
-Titre québécois : Terreur dans la tempête[1]
+Titre québécois : Terreur dans la tempête
 Réalisation : Alexandre Aja
 Scénario : Michael Rasmussen et Shawn Rasmussen
 Direction artistique : Dragan Kaplarevic et Ketan Waikar
@@ -560,13 +576,13 @@
 Producteur exécutif : Andjelija Vlaisavljevic
 Sociétés de production : Raimi Productions et Ghost House Pictures
 Société de distribution : Paramount Pictures (États-Unis, France)
-Budget : 17 millions de dollars[2]
+Budget : 17 millions de dollars
 Pays d'origine :  États-Unis
 Langue originale : anglais
 Format : couleur
 Genre : horreur, catastrophe , survival
 Durée : 87 minutes
-Dates de sortie[3] :
+Dates de sortie :
 États-Unis : 12 juillet 2019
 France : 24 juillet 2019
 Interdit aux moins de 12 ans lors de sa sortie en France
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kaya Scodelario (VF : Karine Foviau ; VQ : Catherine Brunet) : Haley Keller, la fille de Dave
 Tina Pribicevic (VF : Lya Ghalaïmia) : Haley, jeune
@@ -610,7 +628,7 @@
 Anson Boon (VF : Benjamin Bollen) : Stan
 Ami Metcalf (VF : Julia Boutteville) : Lee
 Colin McFarlane : le gouverneur
- Source et légende : version française (VF) sur RS Doublage[4] et version québécoise (VQ) sur Doublage Québec[5]</t>
+ Source et légende : version française (VF) sur RS Doublage et version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -638,10 +656,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2018, Paramount Pictures et Ghost House Pictures annoncent qu'Alexandre Aja va réaliser un film avec Kaya Scodelario en tête d'affiche[6].
-Le tournage débute en août 2018 à Belgrade en Serbie, et se termine en fin septembre[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2018, Paramount Pictures et Ghost House Pictures annoncent qu'Alexandre Aja va réaliser un film avec Kaya Scodelario en tête d'affiche.
+Le tournage débute en août 2018 à Belgrade en Serbie, et se termine en fin septembre,.
 </t>
         </is>
       </c>
@@ -672,12 +692,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sorties
-En janvier 2019, la sortie est annoncée pour le 23 août 2019 avant d'être avancée au 12 juillet 2019 en mars 2019[9].
-Critiques
-Le site Allociné recense une moyenne des critiques presse de 3,3/5.
-Pour Libération, « Du film-concept, ennuyeux et cohérent qu’il aurait pu se contenter d’être, il finit en série B forcenée »[12]. Pour Les Fiches du cinéma, « Renouant avec le survival, Aja met en échec son savoir-faire et ses idées de mise en scène en leur préférant un scénario risible »[13].Pour Olivier Delcroix du Figaro « Aja, revenu au meilleur de sa forme, sert un divertissement primal, cru, violent, mais sacrément réjouissant. » Pour Laurent Duroche de Mad Movies, « Ne vous y trompez pas : malgré son appartenance à un sous-genre souvent négligé, "Crawl" est une petite bombe incarnée et généreuse »
-Box-office</t>
+          <t>Sorties</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2019, la sortie est annoncée pour le 23 août 2019 avant d'être avancée au 12 juillet 2019 en mars 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crawl_(film,_2019)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crawl_(film,_2019)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Allociné recense une moyenne des critiques presse de 3,3/5.
+Pour Libération, « Du film-concept, ennuyeux et cohérent qu’il aurait pu se contenter d’être, il finit en série B forcenée ». Pour Les Fiches du cinéma, « Renouant avec le survival, Aja met en échec son savoir-faire et ses idées de mise en scène en leur préférant un scénario risible ».Pour Olivier Delcroix du Figaro « Aja, revenu au meilleur de sa forme, sert un divertissement primal, cru, violent, mais sacrément réjouissant. » Pour Laurent Duroche de Mad Movies, « Ne vous y trompez pas : malgré son appartenance à un sous-genre souvent négligé, "Crawl" est une petite bombe incarnée et généreuse »
+</t>
         </is>
       </c>
     </row>
